--- a/correosmasivos2.xlsx
+++ b/correosmasivos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/wagamez_sura_com_co/Documents/25.Modelo completo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{704F1230-DFBB-4BFD-83C4-C9857FEE0691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{30FF51B9-B269-4CB5-BE41-002D13E8DAFB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{704F1230-DFBB-4BFD-83C4-C9857FEE0691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F52037-6756-4BAB-AEE9-604CE52116CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,13 +614,13 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,12 +938,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,18 +1173,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A9C1C0-9B46-43F7-ACA0-CB247563D9D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BD83F-47DA-477A-ADB2-E101FFEC3910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2a64215c-eb21-470d-852f-db9fc60a1311"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1c65f6ce-aca7-4909-b6ba-98ecff88dfcd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1210,19 +1220,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350BD83F-47DA-477A-ADB2-E101FFEC3910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A9C1C0-9B46-43F7-ACA0-CB247563D9D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2a64215c-eb21-470d-852f-db9fc60a1311"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1c65f6ce-aca7-4909-b6ba-98ecff88dfcd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>